--- a/data/trans_media/IQ09_D-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ09_D-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -874,12 +874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,05</t>
+          <t>0,0; 9,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,62</t>
+          <t>0,0; 10,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,34 +899,34 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 1,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 5,15</t>
+          <t>0,72; 5,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,03</t>
+          <t>0,0; 5,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,87</t>
+          <t>0,0; 0,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 6,85</t>
+          <t>0,13; 6,55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 7,73</t>
+          <t>0,25; 7,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,54 +1019,54 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 7,17</t>
+          <t>0,44; 7,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,24</t>
+          <t>0,0; 13,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 5,4</t>
+          <t>0,25; 5,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 7,97</t>
+          <t>0,31; 7,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,02</t>
+          <t>0,19; 4,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,23</t>
+          <t>0,92; 6,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,01</t>
+          <t>0,28; 3,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 4,56</t>
+          <t>0,12; 4,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,95</t>
+          <t>0,87; 5,15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 6,75</t>
+          <t>0,28; 6,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 10,85</t>
+          <t>0,74; 11,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,99</t>
+          <t>0,15; 1,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1169,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,74</t>
+          <t>0,55; 5,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,74</t>
+          <t>0,0; 3,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 11,2</t>
+          <t>0,62; 11,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 10,24</t>
+          <t>0,34; 10,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,14</t>
+          <t>1,03; 5,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 7,67</t>
+          <t>1,08; 7,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,06</t>
+          <t>0,63; 6,46</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1284,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,34</t>
+          <t>0,88; 7,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,33</t>
+          <t>0,0; 1,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,85</t>
+          <t>0,0; 2,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 13,92</t>
+          <t>0,85; 13,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,37 +1309,37 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,91</t>
+          <t>0,73; 12,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,86</t>
+          <t>0,0; 3,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,57</t>
+          <t>0,0; 4,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 7,09</t>
+          <t>1,2; 7,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 5,34</t>
+          <t>0,32; 6,36</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,46</t>
+          <t>0,23; 2,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 8,71</t>
+          <t>0,75; 8,78</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,72</t>
+          <t>1,62; 5,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,42</t>
+          <t>0,31; 2,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,05</t>
+          <t>0,5; 3,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,31</t>
+          <t>1,1; 5,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,04</t>
+          <t>1,5; 7,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,84</t>
+          <t>1,28; 4,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,82</t>
+          <t>0,57; 3,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,0</t>
+          <t>0,86; 4,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,17</t>
+          <t>2,06; 5,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,86</t>
+          <t>0,93; 2,9</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,67</t>
+          <t>0,68; 2,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,06</t>
+          <t>1,28; 3,99</t>
         </is>
       </c>
     </row>
